--- a/bernoulli/output (sredjeno 2.0).xlsx
+++ b/bernoulli/output (sredjeno 2.0).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Marko\Documents\GitHub\OPJ_Projekat\bernoulli\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DE0B527-9B6D-4A3B-9D7B-AE13CCC5C036}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B01B8896-6DC2-41D5-A92E-7C4B567FE16B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6195" yWindow="5490" windowWidth="25455" windowHeight="15435" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21240" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="output" sheetId="1" r:id="rId1"/>
@@ -1049,6 +1049,15 @@
     <xf numFmtId="10" fontId="7" fillId="3" borderId="14" xfId="7" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="166" fontId="6" fillId="2" borderId="14" xfId="6" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="35" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="21" fillId="2" borderId="20" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1060,15 +1069,6 @@
     </xf>
     <xf numFmtId="0" fontId="22" fillId="3" borderId="21" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="6" fillId="2" borderId="14" xfId="6" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="35" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -4145,7 +4145,10 @@
   </c:chart>
   <c:spPr>
     <a:solidFill>
-      <a:schemeClr val="bg1"/>
+      <a:srgbClr val="ED7D31">
+        <a:lumMod val="40000"/>
+        <a:lumOff val="60000"/>
+      </a:srgbClr>
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
@@ -9123,16 +9126,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>800100</xdr:colOff>
-      <xdr:row>98</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>685800</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -9160,15 +9163,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>885826</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>90487</xdr:rowOff>
+      <xdr:colOff>76201</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>80962</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>83</xdr:row>
-      <xdr:rowOff>38101</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>1362075</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>28576</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -40507,8 +40510,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:BG77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P61" workbookViewId="0">
-      <selection activeCell="P74" sqref="P74:X77"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="I71" sqref="I71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -43309,10 +43312,10 @@
     </row>
     <row r="32" spans="1:41" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="33" spans="16:59" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="P33" s="74" t="s">
+      <c r="P33" s="77" t="s">
         <v>47</v>
       </c>
-      <c r="Q33" s="75"/>
+      <c r="Q33" s="78"/>
     </row>
     <row r="34" spans="16:59" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="P34" s="26" t="s">
@@ -44374,7 +44377,7 @@
       <c r="T52" s="56" t="s">
         <v>46</v>
       </c>
-      <c r="U52" s="78">
+      <c r="U52" s="74">
         <v>9.9999999999999995E-7</v>
       </c>
       <c r="V52" s="58">
@@ -44416,7 +44419,7 @@
       <c r="T53" s="61" t="s">
         <v>45</v>
       </c>
-      <c r="U53" s="79">
+      <c r="U53" s="75">
         <v>9.9999999999999995E-7</v>
       </c>
       <c r="V53" s="63">
@@ -44458,7 +44461,7 @@
       <c r="T54" s="66" t="s">
         <v>45</v>
       </c>
-      <c r="U54" s="80">
+      <c r="U54" s="76">
         <v>9.9999999999999995E-7</v>
       </c>
       <c r="V54" s="68">
@@ -44486,10 +44489,10 @@
     </row>
     <row r="60" spans="16:56" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="61" spans="16:56" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="P61" s="76" t="s">
+      <c r="P61" s="79" t="s">
         <v>48</v>
       </c>
-      <c r="Q61" s="77"/>
+      <c r="Q61" s="80"/>
     </row>
     <row r="62" spans="16:56" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="P62" s="26" t="s">
